--- a/data/2024/testimonials2024.xlsx
+++ b/data/2024/testimonials2024.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858DB3C0-6D85-43AB-A573-5CCC8B39049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8203213-4DA0-47FA-934B-5F1458F11393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Poster</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/posts/egbert-biesheuvel-4a05891_fast-ich-short-activity-7241023973403111425-UMjt?utm_source=share&amp;utm_medium=member_desktop</t>
+  </si>
+  <si>
+    <t>Author</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -439,10 +439,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="74.85546875" bestFit="1" customWidth="1"/>
@@ -451,10 +451,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -462,145 +462,145 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
